--- a/Psps.Web/Reports/R27.xlsx
+++ b/Psps.Web/Reports/R27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\SWD\SWD-PSPS_LFPIS\Source\Psps\trunk\Psps.Web\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SWD_20211215\SRAA Source Code Scanning\PSPS_SourceCode\PSPS_SourceCode\Psps.Web\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FBEF61-1FC4-496C-9E8D-465015E0F208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDCC368-53DA-4BCF-828D-6A9A760FABD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSP Summary" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -79,9 +84,6 @@
     <t>Report Input Parameters</t>
   </si>
   <si>
-    <t>PSP (excluding Flag Day)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -234,17 +236,20 @@
     <t>Permits Issued</t>
   </si>
   <si>
-    <t>PSP Events</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
-    <t>Report Name: Summary Statistics of PSP of Solicitation of Signed Authorisation Form (excluding FD)</t>
-  </si>
-  <si>
-    <t>Summary Statistics of PSP of Solicitation of Signed Authorisation Form (excluding FD)
+    <t>Summary Statistics of PSP of SSAF
 ({0} to {1})</t>
+  </si>
+  <si>
+    <t>PSP Events Held</t>
+  </si>
+  <si>
+    <t>Report Name: Summary Statistics of PSP of SSAF</t>
+  </si>
+  <si>
+    <t>PSP of SSAF</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,22 +1036,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1055,48 +1057,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,38 +1116,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1154,22 +1156,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1203,101 +1205,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1328,9 +1330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1368,9 +1370,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1403,26 +1405,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1455,26 +1440,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1651,333 +1619,333 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="37.799999999999997">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
+      <c r="B10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A11" s="41"/>
+      <c r="B11" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="A12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="89" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="B10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="53"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A12" s="73" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A13" s="90"/>
+      <c r="B13" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" thickTop="1">
+      <c r="A14" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="54" t="s">
+      <c r="B14" s="78">
+        <f>B15+C15</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A15" s="77"/>
+      <c r="B15" s="54">
+        <v>0</v>
+      </c>
+      <c r="C15" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A16" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="81">
+        <f>B17+C17</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="82"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A17" s="77"/>
+      <c r="B17" s="54">
+        <v>0</v>
+      </c>
+      <c r="C17" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A18" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="64">
+        <f>B19+C19</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="65"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A19" s="84"/>
+      <c r="B19" s="58">
+        <f>B15-B17</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="55">
+        <f>C15-C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A20" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="53"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="A14" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="75">
-        <f>B15+C15</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="55">
-        <v>0</v>
-      </c>
-      <c r="C15" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="63">
-        <f>B17+C17</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="64"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="55">
-        <v>0</v>
-      </c>
-      <c r="C17" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="78">
-        <f>B19+C19</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="79"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="59">
-        <f>B15-B17</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="56">
-        <f>C15-C17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="78">
+      <c r="B20" s="64">
         <f>B21+C21</f>
         <v>0</v>
       </c>
-      <c r="C20" s="79"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="55">
-        <v>0</v>
-      </c>
-      <c r="C21" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="78">
+      <c r="C20" s="65"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A21" s="86"/>
+      <c r="B21" s="54">
+        <v>0</v>
+      </c>
+      <c r="C21" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A22" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="64">
         <f>B23+C23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="79"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="55">
-        <v>0</v>
-      </c>
-      <c r="C23" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="78">
+      <c r="C22" s="65"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A23" s="63"/>
+      <c r="B23" s="54">
+        <v>0</v>
+      </c>
+      <c r="C23" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A24" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="64">
         <f>B25+C25</f>
         <v>0</v>
       </c>
-      <c r="C24" s="79"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="57">
-        <v>0</v>
-      </c>
-      <c r="C25" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1"/>
+      <c r="C24" s="65"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A25" s="91"/>
+      <c r="B25" s="56">
+        <v>0</v>
+      </c>
+      <c r="C25" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" thickBot="1"/>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="70"/>
+      <c r="B30" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="88"/>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="62" t="s">
-        <v>13</v>
+      <c r="B31" s="61" t="s">
+        <v>67</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="A33" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="78">
+        <f>B34+C34</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="79"/>
+    </row>
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A34" s="77"/>
+      <c r="B34" s="56">
+        <v>0</v>
+      </c>
+      <c r="C34" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="81">
+        <f>B36+C36</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="82"/>
+    </row>
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A36" s="77"/>
+      <c r="B36" s="56">
+        <v>0</v>
+      </c>
+      <c r="C36" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A33" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="75">
-        <f>B34+C34</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="72"/>
-    </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A34" s="74"/>
-      <c r="B34" s="57">
-        <v>0</v>
-      </c>
-      <c r="C34" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="63">
-        <f>B36+C36</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="64"/>
-    </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A36" s="74"/>
-      <c r="B36" s="57">
-        <v>0</v>
-      </c>
-      <c r="C36" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="63">
+      <c r="B37" s="81">
         <f>B38+C38</f>
         <v>0</v>
       </c>
-      <c r="C37" s="64"/>
+      <c r="C37" s="82"/>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="57">
-        <v>0</v>
-      </c>
-      <c r="C38" s="58">
+      <c r="A38" s="90"/>
+      <c r="B38" s="56">
+        <v>0</v>
+      </c>
+      <c r="C38" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="63">
+      <c r="A39" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="81">
         <f>B40+C40</f>
         <v>0</v>
       </c>
-      <c r="C39" s="64"/>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="57">
-        <v>0</v>
-      </c>
-      <c r="C40" s="58">
+      <c r="C39" s="82"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A40" s="90"/>
+      <c r="B40" s="56">
+        <v>0</v>
+      </c>
+      <c r="C40" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="63">
+      <c r="A41" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="81">
         <f>B42+C42</f>
         <v>0</v>
       </c>
-      <c r="C41" s="64"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A42" s="66"/>
-      <c r="B42" s="57">
-        <v>0</v>
-      </c>
-      <c r="C42" s="58">
+      <c r="C41" s="82"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A42" s="90"/>
+      <c r="B42" s="56">
+        <v>0</v>
+      </c>
+      <c r="C42" s="57">
         <v>0</v>
       </c>
     </row>
@@ -1985,60 +1953,79 @@
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="92"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="75"/>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
     </row>
     <row r="50" spans="1:3" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="86"/>
+      <c r="A50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:C24"/>
@@ -2055,25 +2042,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2090,538 +2058,538 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="25.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="25.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="92"/>
+      <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="47"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="48"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31">
+        <f>O2+B3-C3-D3-H3-I3-J3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="47"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32">
-        <f>O2+B3-C3-D3-H3-I3-J3-K3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="48"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="20" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31">
+        <f t="shared" ref="O4:O13" si="0">O3+B4-C4-D4-H4-I4-J4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="47"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32">
-        <f t="shared" ref="O4:O13" si="0">O3+B4-C4-D4-H4-I4-J4-K4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="48"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="20" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="47"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="48"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="20" t="s">
+      <c r="P6" s="44"/>
+      <c r="Q6" s="47"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="48"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="20" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="48"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="20" t="s">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="48"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="20" t="s">
+      <c r="P9" s="44"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="48"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="20" t="s">
+      <c r="P10" s="44"/>
+      <c r="Q10" s="47"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="48"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="20" t="s">
+      <c r="P11" s="44"/>
+      <c r="Q11" s="47"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="48"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="20" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="47"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="48"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="20" t="s">
+      <c r="P13" s="44"/>
+      <c r="Q13" s="47"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="48"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="20" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31">
+        <f>O13+B14-C14-D14-H14-I14-J14-K14</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="47"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="A15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32">
-        <f>O13+B14-C14-D14-H14-I14-J14-K14</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="48"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="49"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="41">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="A16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="40">
         <f>SUM(B2:B15)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="40">
         <f t="shared" ref="C16:Q16" si="1">SUM(C2:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="47">
+      <c r="O16" s="40"/>
+      <c r="P16" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" thickTop="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
+    <row r="17" spans="1:17" ht="16.2" thickTop="1">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2642,336 +2610,336 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="10" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="98.25" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="98.25" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="H3" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="43" t="s">
+      <c r="J3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="20"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29">
+      <c r="A5" s="19"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
         <f t="shared" ref="I5:I17" si="0">SUM(B5:H5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="29"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29">
+      <c r="A6" s="19"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="20"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29">
+      <c r="A7" s="19"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="20"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29">
+      <c r="A8" s="19"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="20"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29">
+      <c r="A9" s="19"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29">
+      <c r="A10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="20"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29">
+      <c r="A11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="20"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29">
+      <c r="A12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="20"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29">
+      <c r="A13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="20"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29">
+      <c r="A14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="20"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29">
+      <c r="A15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="20"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29">
+      <c r="A16" s="19"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29">
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A18" s="27" t="s">
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="29">
+        <f>SUM(B5:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" ref="C18:J18" si="1">SUM(C5:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="30">
-        <f>SUM(B5:B16)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="30">
-        <f t="shared" ref="C18:J18" si="1">SUM(C5:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A19" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickTop="1"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
